--- a/Pipeline_2-Vulnerability/Finance/Outputs/Data/Eurostat_GFCF.xlsx
+++ b/Pipeline_2-Vulnerability/Finance/Outputs/Data/Eurostat_GFCF.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2875</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2060</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2288</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4693</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1595</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>1270</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>299.9</v>
+        <v>305.2</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>5853.3</v>
+        <v>5844.7</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1105.4</v>
+        <v>1113.9</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>2163</v>
+        <v>2198.4</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>749.2</v>
+        <v>743.6</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>2020.3</v>
+        <v>2024.3</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2015.5</v>
+        <v>2021.5</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1113.3</v>
+        <v>1144.6</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>843.9</v>
+        <v>854.4</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>278.7</v>
+        <v>278.6</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>202.5</v>
+        <v>206.7</v>
       </c>
     </row>
     <row r="22">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>163.92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>663.65</v>
+        <v>606.83</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2918.49</v>
+        <v>2331.24</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>1134.59</v>
+        <v>1061.39</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>1081.67</v>
+        <v>1047.31</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>1608</v>
+        <v>1500.2</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>1338.34</v>
+        <v>1296.65</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1547</v>
+        <v>1399.06</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>1437.05</v>
+        <v>1433.78</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>17640.66</v>
+        <v>18608.62</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>4860.55</v>
+        <v>5127.25</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>3733.11</v>
+        <v>3937.95</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>5509.09</v>
+        <v>5811.38</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>14024.18</v>
+        <v>14793.71</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>3039.11</v>
+        <v>3205.87</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>2537.98</v>
+        <v>2677.24</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>1519.82</v>
+        <v>1603.21</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>3089.34</v>
+        <v>3258.86</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>2331.05</v>
+        <v>2458.96</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>2920.52</v>
+        <v>3080.77</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>2154.66</v>
+        <v>2272.89</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>1657.9</v>
+        <v>1748.87</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>1524.91</v>
+        <v>1608.58</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>2176.8</v>
+        <v>2296.24</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>6693.28</v>
+        <v>7060.55</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>1204.79</v>
+        <v>1270.9</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>1399.19</v>
+        <v>1475.97</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>774.88</v>
+        <v>817.4</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>6986.05</v>
+        <v>7369.38</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>2309.69</v>
+        <v>2436.43</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>995.05</v>
+        <v>1049.65</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>2692.43</v>
+        <v>2840.17</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>5133.76</v>
+        <v>5415.46</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>4475.53</v>
+        <v>4721.11</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>2796.41</v>
+        <v>2949.85</v>
       </c>
     </row>
     <row r="63">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>2766.53</v>
+        <v>2918.34</v>
       </c>
     </row>
     <row r="64">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>4125.26</v>
+        <v>4351.62</v>
       </c>
     </row>
     <row r="65">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>1782.47</v>
+        <v>1880.28</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>757.83</v>
+        <v>799.42</v>
       </c>
     </row>
     <row r="67">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>3657.98</v>
+        <v>3858.7</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>1276.68</v>
+        <v>1346.73</v>
       </c>
     </row>
     <row r="69">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>2602.52</v>
+        <v>2745.33</v>
       </c>
     </row>
     <row r="70">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>1748.64</v>
+        <v>1844.6</v>
       </c>
     </row>
     <row r="71">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>969.01</v>
+        <v>1022.18</v>
       </c>
     </row>
     <row r="72">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>2226.62</v>
+        <v>2348.8</v>
       </c>
     </row>
     <row r="73">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>2067.5</v>
+        <v>2180.94</v>
       </c>
     </row>
     <row r="74">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>2540.41</v>
+        <v>2679.81</v>
       </c>
     </row>
     <row r="75">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>5708.75</v>
+        <v>6534.49</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>873.2</v>
+        <v>964.5</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>1838.24</v>
+        <v>1904.8</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>1605.76</v>
+        <v>1717.9</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>625.92</v>
+        <v>626.33</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>752.4</v>
+        <v>754.59</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>1314.53</v>
+        <v>1227.51</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>12.04</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>24.73</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>87.38</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>112.38</v>
+        <v>104.94</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>436.79</v>
+        <v>407.87</v>
       </c>
     </row>
     <row r="87">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>26.71</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="88">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>75.90000000000001</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="89">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>251.33</v>
+        <v>234.7</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>7.78</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>60.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>166</v>
+        <v>155.01</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>58.7</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>1876.1</v>
+        <v>2056.9</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>860.8</v>
+        <v>1262.7</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>485.5</v>
+        <v>682.3</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>2099</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>1588.6</v>
+        <v>1918.8</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>393.9</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="100">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>1296.1</v>
+        <v>1639.8</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>2604</v>
+        <v>3285.9</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>2338.1</v>
+        <v>2501.7</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>1650.7</v>
+        <v>1740.8</v>
       </c>
     </row>
     <row r="104">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>478.3</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>6628.6</v>
+        <v>8099.8</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>5002.5</v>
+        <v>5907.6</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>87.40000000000001</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>2066.6</v>
+        <v>2248.3</v>
       </c>
     </row>
     <row r="109">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>1345</v>
+        <v>1232.6</v>
       </c>
     </row>
     <row r="110">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>271.9</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>1877.69</v>
+        <v>2084.92</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>3214.49</v>
+        <v>3923.28</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>1256.05</v>
+        <v>1229.41</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>1544.88</v>
+        <v>1971.39</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>19.88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>11315.23</v>
+        <v>8047.1</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>2856.36</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>1677.96</v>
+        <v>1306.5</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>1606.12</v>
+        <v>1286.7</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>1703.49</v>
+        <v>1322.8</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>3037.25</v>
+        <v>1957.8</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>3832.24</v>
+        <v>2927.8</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>2140.16</v>
+        <v>1578.2</v>
       </c>
     </row>
     <row r="126">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>2965.95</v>
+        <v>2317.3</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>1614.07</v>
+        <v>1218.3</v>
       </c>
     </row>
     <row r="128">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>2189.44</v>
+        <v>1675.8</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>4674.69</v>
+        <v>3711.6</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>3609.13</v>
+        <v>2766.9</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>2965.06</v>
+        <v>2311.5</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>534.63</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="133">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>1750.31</v>
+        <v>1394.4</v>
       </c>
     </row>
     <row r="134">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>1354.96</v>
+        <v>1011.1</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>3160.62</v>
+        <v>2481.7</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>1613.07</v>
+        <v>1194.1</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>9543.09</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>3992.65</v>
+        <v>2773.6</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>81.18000000000001</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>371.49</v>
+        <v>364.65</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>451.81</v>
+        <v>443.76</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>234.37</v>
+        <v>230.46</v>
       </c>
     </row>
     <row r="143">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>471.87</v>
+        <v>464.81</v>
       </c>
     </row>
     <row r="144">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>829.97</v>
+        <v>830.14</v>
       </c>
     </row>
     <row r="145">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>2216.45</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>1908.7</v>
+        <v>1909.96</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>1062.24</v>
+        <v>1071.1</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>481.33</v>
+        <v>480.61</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>1586.42</v>
+        <v>1579.15</v>
       </c>
     </row>
     <row r="150">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>1193.48</v>
+        <v>1188.52</v>
       </c>
     </row>
     <row r="151">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>925.14</v>
+        <v>931.4</v>
       </c>
     </row>
     <row r="152">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>7253.55</v>
+        <v>3506.4</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>25931.69</v>
+        <v>26688.11</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>5656.04</v>
+        <v>9479.23</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>8656.299999999999</v>
+        <v>9050.4</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>104.4</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="157">
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>1083.7</v>
+        <v>1199.8</v>
       </c>
     </row>
     <row r="158">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>16740.9</v>
+        <v>16576.7</v>
       </c>
     </row>
     <row r="159">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>1142.3</v>
+        <v>1499.3</v>
       </c>
     </row>
     <row r="160">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>92.8</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="161">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>2764.2</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="162">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>1528.8</v>
+        <v>1671.3</v>
       </c>
     </row>
     <row r="163">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>501.4</v>
+        <v>599.5</v>
       </c>
     </row>
     <row r="164">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>298.5</v>
+        <v>465.2</v>
       </c>
     </row>
     <row r="165">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>1451.6</v>
+        <v>1570.8</v>
       </c>
     </row>
     <row r="166">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>465.9</v>
+        <v>460.2</v>
       </c>
     </row>
     <row r="167">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>707.8</v>
+        <v>757.7</v>
       </c>
     </row>
     <row r="168">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>965.7</v>
+        <v>897.5</v>
       </c>
     </row>
     <row r="169">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>8991.1</v>
+        <v>9100.200000000001</v>
       </c>
     </row>
     <row r="170">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>2087.8</v>
+        <v>2092.7</v>
       </c>
     </row>
     <row r="171">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>10792.2</v>
+        <v>11634.5</v>
       </c>
     </row>
     <row r="172">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>4774.3</v>
+        <v>4990.2</v>
       </c>
     </row>
     <row r="173">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>925.4</v>
+        <v>1027.4</v>
       </c>
     </row>
     <row r="174">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>1794.9</v>
+        <v>1805.6</v>
       </c>
     </row>
     <row r="175">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>3019.2</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="176">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>636.2</v>
+        <v>644.45</v>
       </c>
     </row>
     <row r="177">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>1215.7</v>
+        <v>1243.02</v>
       </c>
     </row>
     <row r="178">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>489.58</v>
+        <v>489.6</v>
       </c>
     </row>
     <row r="179">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>948.85</v>
+        <v>891.4</v>
       </c>
     </row>
     <row r="180">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>163.85</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="181">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>507.76</v>
+        <v>458.85</v>
       </c>
     </row>
     <row r="182">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>559.38</v>
+        <v>508.12</v>
       </c>
     </row>
     <row r="183">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>409.75</v>
+        <v>360.69</v>
       </c>
     </row>
     <row r="184">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>1288.3</v>
+        <v>1128.57</v>
       </c>
     </row>
     <row r="185">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>2008.27</v>
+        <v>1811.73</v>
       </c>
     </row>
     <row r="186">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>269.66</v>
+        <v>253.13</v>
       </c>
     </row>
     <row r="187">
@@ -3160,9 +3160,6 @@
           <t>NL31</t>
         </is>
       </c>
-      <c r="C187">
-        <v>887.8099999999999</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3176,7 +3173,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>2304.05</v>
+        <v>2184.81</v>
       </c>
     </row>
     <row r="189">
@@ -3190,9 +3187,6 @@
           <t>NL33</t>
         </is>
       </c>
-      <c r="C189">
-        <v>3105.81</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3206,7 +3200,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>631.49</v>
+        <v>560.1</v>
       </c>
     </row>
     <row r="191">
@@ -3221,7 +3215,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>3909.01</v>
+        <v>3477.27</v>
       </c>
     </row>
     <row r="192">
@@ -3236,7 +3230,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>1305.72</v>
+        <v>1196.74</v>
       </c>
     </row>
     <row r="193">
@@ -3251,7 +3245,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>1310.79</v>
+        <v>1314.95</v>
       </c>
     </row>
     <row r="194">
@@ -3266,7 +3260,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>2494.52</v>
+        <v>2502.19</v>
       </c>
     </row>
     <row r="195">
@@ -3281,7 +3275,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>2000.35</v>
+        <v>2006.7</v>
       </c>
     </row>
     <row r="196">
@@ -3296,7 +3290,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>484.32</v>
+        <v>485.63</v>
       </c>
     </row>
     <row r="197">
@@ -3311,7 +3305,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>539.74</v>
+        <v>541.49</v>
       </c>
     </row>
     <row r="198">
@@ -3326,7 +3320,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>2716.42</v>
+        <v>2724.74</v>
       </c>
     </row>
     <row r="199">
@@ -3341,7 +3335,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>571.0599999999999</v>
+        <v>572.8099999999999</v>
       </c>
     </row>
     <row r="200">
@@ -3356,7 +3350,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>1105.1</v>
+        <v>1108.6</v>
       </c>
     </row>
     <row r="201">
@@ -3371,7 +3365,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>550.25</v>
+        <v>551.5599999999999</v>
       </c>
     </row>
     <row r="202">
@@ -3386,7 +3380,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>827.13</v>
+        <v>829.76</v>
       </c>
     </row>
     <row r="203">
@@ -3401,7 +3395,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>1107.73</v>
+        <v>1111.45</v>
       </c>
     </row>
     <row r="204">
@@ -3416,7 +3410,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>435.91</v>
+        <v>437.22</v>
       </c>
     </row>
     <row r="205">
@@ -3431,7 +3425,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>744.33</v>
+        <v>746.74</v>
       </c>
     </row>
     <row r="206">
@@ -3446,7 +3440,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>859.77</v>
+        <v>862.39</v>
       </c>
     </row>
     <row r="207">
@@ -3461,7 +3455,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>434.15</v>
+        <v>435.47</v>
       </c>
     </row>
     <row r="208">
@@ -3476,7 +3470,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>1358.32</v>
+        <v>1362.48</v>
       </c>
     </row>
     <row r="209">
@@ -3491,7 +3485,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>1787</v>
+        <v>1792.69</v>
       </c>
     </row>
     <row r="210">
@@ -3506,7 +3500,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>3104.28</v>
+        <v>3227.6</v>
       </c>
     </row>
     <row r="211">
@@ -3521,7 +3515,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>49.27</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="212">
@@ -3535,9 +3529,6 @@
           <t>PT16</t>
         </is>
       </c>
-      <c r="C212">
-        <v>2266.88</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3550,9 +3541,6 @@
           <t>PT17</t>
         </is>
       </c>
-      <c r="C213">
-        <v>1111.43</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3565,9 +3553,6 @@
           <t>PT18</t>
         </is>
       </c>
-      <c r="C214">
-        <v>768.08</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3581,7 +3566,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>33.18</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="216">
@@ -3596,7 +3581,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>23.15</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="217">
@@ -3611,7 +3596,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>838.42</v>
+        <v>858.38</v>
       </c>
     </row>
     <row r="218">
@@ -3626,7 +3611,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>1339.9</v>
+        <v>1371.78</v>
       </c>
     </row>
     <row r="219">
@@ -3641,7 +3626,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>517.89</v>
+        <v>530.22</v>
       </c>
     </row>
     <row r="220">
@@ -3656,7 +3641,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>370.96</v>
+        <v>379.81</v>
       </c>
     </row>
     <row r="221">
@@ -3671,7 +3656,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>1296.49</v>
+        <v>1327.34</v>
       </c>
     </row>
     <row r="222">
@@ -3686,7 +3671,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>951.62</v>
+        <v>974.26</v>
       </c>
     </row>
     <row r="223">
@@ -3701,7 +3686,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>433.14</v>
+        <v>443.44</v>
       </c>
     </row>
     <row r="224">
@@ -3716,7 +3701,7 @@
         </is>
       </c>
       <c r="C224">
-        <v>734.61</v>
+        <v>752.09</v>
       </c>
     </row>
     <row r="225">
@@ -3731,7 +3716,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>3735.57</v>
+        <v>3912.88</v>
       </c>
     </row>
     <row r="226">
@@ -3746,7 +3731,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>2689.4</v>
+        <v>2817.03</v>
       </c>
     </row>
     <row r="227">
@@ -3761,7 +3746,7 @@
         </is>
       </c>
       <c r="C227">
-        <v>1344.8</v>
+        <v>1408.66</v>
       </c>
     </row>
     <row r="228">
@@ -3776,7 +3761,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>1553.54</v>
+        <v>1627.26</v>
       </c>
     </row>
     <row r="229">
@@ -3791,7 +3776,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>6029.76</v>
+        <v>6316.07</v>
       </c>
     </row>
     <row r="230">
@@ -3806,7 +3791,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>1106.1</v>
+        <v>1158.63</v>
       </c>
     </row>
     <row r="231">
@@ -3821,7 +3806,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>624.45</v>
+        <v>654.12</v>
       </c>
     </row>
     <row r="232">
@@ -3836,7 +3821,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>1086.19</v>
+        <v>1137.73</v>
       </c>
     </row>
     <row r="233">
@@ -3851,7 +3836,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>1247</v>
+        <v>1253.02</v>
       </c>
     </row>
     <row r="234">
@@ -3866,7 +3851,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>1194.63</v>
+        <v>1200.02</v>
       </c>
     </row>
     <row r="235">
@@ -3896,7 +3881,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>1335.38</v>
+        <v>1335.39</v>
       </c>
     </row>
     <row r="237">
@@ -3911,7 +3896,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>1136</v>
+        <v>1136.01</v>
       </c>
     </row>
     <row r="238">
@@ -3926,7 +3911,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>586.45</v>
+        <v>586.46</v>
       </c>
     </row>
   </sheetData>
